--- a/Log de test.xlsx
+++ b/Log de test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2303CE9E-CD11-446A-89A7-E9B08F814CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD2DD8-D678-47A7-96AB-AE871210D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F33C3A9-441F-4AD7-8153-85BBDC3B1A97}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -169,9 +169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,10 +512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0A13DD-524F-45B4-BAF3-35CC097F5F74}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +538,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>45365.996850462965</v>
+        <v>45366.071160069441</v>
       </c>
       <c r="B2" s="2">
         <v>819.7</v>
@@ -553,7 +550,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f ca="1">NOW()</f>
-        <v>45365.996850462965</v>
+        <v>45366.071160069441</v>
       </c>
       <c r="B3" s="5">
         <v>-11</v>
@@ -646,8 +643,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <v>8.35</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -665,8 +662,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>-1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -692,14 +688,36 @@
         <v>292.35000000000002</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10.050000000000001</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>15.95</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15.95</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <f>SUM(B16:B18)</f>
+        <v>838.7</v>
+      </c>
+      <c r="C19" s="7">
+        <f>SUM(C16:C18)</f>
+        <v>318.35000000000002</v>
       </c>
     </row>
   </sheetData>
